--- a/LS_2019_2020/ZPS/cvicenia/cv06.xlsx
+++ b/LS_2019_2020/ZPS/cvicenia/cv06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\FIIT\LS_2019_2020\ZPS\cvicenia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E739FED6-F114-4CBC-B120-CC2C13DCC01B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620E0B46-22F8-4CC7-8EEA-70411F6CC9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{4AEE03EE-092B-41AD-97F1-52ADEB2E3E14}"/>
+    <workbookView xWindow="-18570" yWindow="3380" windowWidth="14400" windowHeight="7460" xr2:uid="{4AEE03EE-092B-41AD-97F1-52ADEB2E3E14}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Základné serverové nastavenia</t>
   </si>
   <si>
-    <t>Úlohy realizujte v OS Linux AJ v OS Windows - nájdite free/open source riešenia a nakonfigurujte ho; 
-V odovzdanom dokumente popíšte zrealizované riešenie úloh pre OBA operačné systémy (tak aby to bolo rozlíšiteľné)</t>
-  </si>
-  <si>
     <t>HTTP server</t>
   </si>
   <si>
@@ -73,13 +69,185 @@
   </si>
   <si>
     <t>Na akom porte štandardne "počúva" http server? Kde tento port môžete zmeniť? Ako musíte po zmene portu http server zadať adresu webu do prehliadača?</t>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+  </si>
+  <si>
+    <t>LINUX</t>
+  </si>
+  <si>
+    <t>inštalácia</t>
+  </si>
+  <si>
+    <t>ako iné programy</t>
+  </si>
+  <si>
+    <t>sudo apt-get install apache2</t>
+  </si>
+  <si>
+    <t>už je to tak dopredu</t>
+  </si>
+  <si>
+    <t>sudo update-rc.d apache2 disable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">wamp64/bin/apace2/conf/extra/httpd-vhosts.conf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>treba zmeniť root directory a  virtual host directory</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cd /etc/apache2/sites-available</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,    2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nano 000-default.conf </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,    3. zmenit </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"DocumentRoot/var/www/mojHTTPserver/"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,    4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sudo service apache2 restart</t>
+    </r>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nainštalovať cez mySQL PHP admin - stiahnuť Wordpress, dať do www </t>
+  </si>
+  <si>
+    <t>chmod 777</t>
+  </si>
+  <si>
+    <t>sudo apt install wordpress php libapache2-mod-php mysql-server php-mysql
+treba vytvoriť /etc/apache2/sites-available/wordpress.conf potom vložiť "Alias /blog /usr/share/wordpress
+&lt;Directory /usr/share/wordpress&gt;
+    Options FollowSymLinks
+    AllowOverride Limit Options FileInfo
+    DirectoryIndex index.php
+    Order allow,deny
+    Allow from all
+&lt;/Directory&gt;
+&lt;Directory /usr/share/wordpress/wp-content&gt;
+    Options FollowSymLinks
+    Order allow,deny
+    Allow from all
+&lt;/Directory&gt;" - treba napísať " sudo a2ensite wordpress" , sudo a2enmod rewrite , sudo service apache2 restart</t>
+  </si>
+  <si>
+    <t>/etc/apache2/sites-available/</t>
+  </si>
+  <si>
+    <t>wamp64/bin/apache2/conf/httpd.conf /extra/httpd-vhosts.conf</t>
+  </si>
+  <si>
+    <t>na 80, vo wamp64/bin/apache2/conf/httpd.conf</t>
+  </si>
+  <si>
+    <t>tiež na 80, nano /etc/apache2/ports.conf    ip:port</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,8 +278,55 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Webdings"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,12 +335,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -174,29 +401,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,107 +807,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825EEEA5-B416-4365-BD86-77AED103AD22}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="74.7265625" customWidth="1"/>
+    <col min="2" max="2" width="101" style="7" customWidth="1"/>
+    <col min="3" max="3" width="3.36328125" customWidth="1"/>
+    <col min="4" max="4" width="36" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29.36328125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="26" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="64" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="104.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="D5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="75.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="D6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="377.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="38" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="D8" s="13"/>
+      <c r="F8" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="41.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="D9" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="D10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" ht="50.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="D12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
